--- a/Assessments/Unit4/4.3.2/messyMaids.xlsx
+++ b/Assessments/Unit4/4.3.2/messyMaids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.3.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A5F21E-23E8-421C-AB2F-5C37A6B8692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{672A2385-00F3-45FA-BE35-DF878991A4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9ED7329-1250-4EA0-B3C9-DE3F743E9570}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Job ID</t>
   </si>
@@ -44,7 +44,16 @@
     <t>Actual Revenue</t>
   </si>
   <si>
-    <t>Predicted Revenue</t>
+    <t>Job Size</t>
+  </si>
+  <si>
+    <t>Cleaning Frequency</t>
+  </si>
+  <si>
+    <t>Location Type</t>
+  </si>
+  <si>
+    <t>Customer Rating</t>
   </si>
 </sst>
 </file>
@@ -430,59 +439,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78E5DBF-4CB8-4431-8BC8-A45A3430A1E4}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F2" s="2">
         <v>1200</v>
       </c>
-      <c r="C2" s="2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="F3" s="2">
         <v>950</v>
       </c>
-      <c r="C3" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F4" s="2">
         <v>1500</v>
       </c>
-      <c r="C4" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -490,76 +535,68 @@
         <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F6" s="2">
         <v>1000</v>
       </c>
-      <c r="C6" s="2">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>700</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>950</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1100</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C10">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1350</v>
-      </c>
-      <c r="C11">
-        <v>1200</v>
-      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>